--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Robo1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Robo1-Robo1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="H2">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="I2">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="J2">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N2">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O2">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P2">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q2">
-        <v>0.02070337284444444</v>
+        <v>0.028782479716</v>
       </c>
       <c r="R2">
-        <v>0.1863303556</v>
+        <v>0.259042317444</v>
       </c>
       <c r="S2">
-        <v>3.055978359678266E-05</v>
+        <v>3.714005935302747E-05</v>
       </c>
       <c r="T2">
-        <v>3.383599953287993E-05</v>
+        <v>4.270206334483749E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="H3">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="I3">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="J3">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>65.97693</v>
       </c>
       <c r="O3">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P3">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q3">
-        <v>3.1644001782</v>
+        <v>3.73108336074</v>
       </c>
       <c r="R3">
-        <v>28.4796016038</v>
+        <v>33.57975024666</v>
       </c>
       <c r="S3">
-        <v>0.004670900021266918</v>
+        <v>0.004814479462377425</v>
       </c>
       <c r="T3">
-        <v>0.005171652162954297</v>
+        <v>0.005535484071812647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="H4">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="I4">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="J4">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N4">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O4">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P4">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q4">
-        <v>0.00223297718</v>
+        <v>0.008092099940666666</v>
       </c>
       <c r="R4">
-        <v>0.02009679462</v>
+        <v>0.072828899466</v>
       </c>
       <c r="S4">
-        <v>3.296047456135408E-06</v>
+        <v>1.044180609358412E-05</v>
       </c>
       <c r="T4">
-        <v>3.649406084076104E-06</v>
+        <v>1.200554530633491E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="H5">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="I5">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="J5">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N5">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O5">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P5">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q5">
-        <v>0.5577854404199999</v>
+        <v>0.954922054003</v>
       </c>
       <c r="R5">
-        <v>3.34671264252</v>
+        <v>5.729532324018001</v>
       </c>
       <c r="S5">
-        <v>0.0008233345590955432</v>
+        <v>0.001232203135835829</v>
       </c>
       <c r="T5">
-        <v>0.0006077344029337004</v>
+        <v>0.0009444898989888091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>65.97693</v>
       </c>
       <c r="I6">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="J6">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N6">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O6">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P6">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q6">
-        <v>3.1644001782</v>
+        <v>3.73108336074</v>
       </c>
       <c r="R6">
-        <v>28.4796016038</v>
+        <v>33.57975024666</v>
       </c>
       <c r="S6">
-        <v>0.004670900021266918</v>
+        <v>0.004814479462377425</v>
       </c>
       <c r="T6">
-        <v>0.005171652162954297</v>
+        <v>0.005535484071812647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>65.97693</v>
       </c>
       <c r="I7">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="J7">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>65.97693</v>
       </c>
       <c r="O7">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P7">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q7">
         <v>483.6616991361</v>
@@ -880,10 +880,10 @@
         <v>4352.955292224899</v>
       </c>
       <c r="S7">
-        <v>0.7139221696245331</v>
+        <v>0.6241027315903998</v>
       </c>
       <c r="T7">
-        <v>0.7904594651799662</v>
+        <v>0.7175668225173941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>65.97693</v>
       </c>
       <c r="I8">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="J8">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N8">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O8">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P8">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q8">
-        <v>0.34129865889</v>
+        <v>1.04898187161</v>
       </c>
       <c r="R8">
-        <v>3.07168793001</v>
+        <v>9.440836844489999</v>
       </c>
       <c r="S8">
-        <v>0.0005037832838116201</v>
+        <v>0.001353575138635051</v>
       </c>
       <c r="T8">
-        <v>0.0005577922664844166</v>
+        <v>0.001556283224067587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>65.97693</v>
       </c>
       <c r="I9">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="J9">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N9">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O9">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P9">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q9">
-        <v>85.25453124590999</v>
+        <v>123.786894723795</v>
       </c>
       <c r="R9">
-        <v>511.5271874754599</v>
+        <v>742.72136834277</v>
       </c>
       <c r="S9">
-        <v>0.1258422985035155</v>
+        <v>0.1597309426613794</v>
       </c>
       <c r="T9">
-        <v>0.09288896390897591</v>
+        <v>0.1224345706581075</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="H10">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="I10">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="J10">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N10">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O10">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P10">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q10">
-        <v>0.00223297718</v>
+        <v>0.008092099940666666</v>
       </c>
       <c r="R10">
-        <v>0.02009679462</v>
+        <v>0.072828899466</v>
       </c>
       <c r="S10">
-        <v>3.296047456135408E-06</v>
+        <v>1.044180609358412E-05</v>
       </c>
       <c r="T10">
-        <v>3.649406084076104E-06</v>
+        <v>1.200554530633491E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="H11">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="I11">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="J11">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,22 +1116,22 @@
         <v>65.97693</v>
       </c>
       <c r="O11">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P11">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q11">
-        <v>0.34129865889</v>
+        <v>1.04898187161</v>
       </c>
       <c r="R11">
-        <v>3.07168793001</v>
+        <v>9.440836844489999</v>
       </c>
       <c r="S11">
-        <v>0.0005037832838116201</v>
+        <v>0.001353575138635051</v>
       </c>
       <c r="T11">
-        <v>0.0005577922664844166</v>
+        <v>0.001556283224067587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="H12">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="I12">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="J12">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1172,28 +1172,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N12">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O12">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P12">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q12">
-        <v>0.000240839361</v>
+        <v>0.002275067405444444</v>
       </c>
       <c r="R12">
-        <v>0.002167554249</v>
+        <v>0.020475606649</v>
       </c>
       <c r="S12">
-        <v>3.554975708087296E-07</v>
+        <v>2.935679597591239E-06</v>
       </c>
       <c r="T12">
-        <v>3.936093199655544E-07</v>
+        <v>3.375319757701718E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="H13">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="I13">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="J13">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N13">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O13">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P13">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q13">
-        <v>0.060160350159</v>
+        <v>0.2684732091461667</v>
       </c>
       <c r="R13">
-        <v>0.360962100954</v>
+        <v>1.610839254877</v>
       </c>
       <c r="S13">
-        <v>8.880134149055092E-05</v>
+        <v>0.0003464298775078616</v>
       </c>
       <c r="T13">
-        <v>6.554763146315224E-05</v>
+        <v>0.00026554024291795</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="H14">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="I14">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="J14">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1438866666666667</v>
+        <v>0.169654</v>
       </c>
       <c r="N14">
-        <v>0.43166</v>
+        <v>0.508962</v>
       </c>
       <c r="O14">
-        <v>0.005528090411415379</v>
+        <v>0.006094264463659866</v>
       </c>
       <c r="P14">
-        <v>0.005816871971504954</v>
+        <v>0.006534681579452628</v>
       </c>
       <c r="Q14">
-        <v>0.5577854404199999</v>
+        <v>0.954922054003</v>
       </c>
       <c r="R14">
-        <v>3.34671264252</v>
+        <v>5.729532324018001</v>
       </c>
       <c r="S14">
-        <v>0.0008233345590955432</v>
+        <v>0.001232203135835829</v>
       </c>
       <c r="T14">
-        <v>0.0006077344029337004</v>
+        <v>0.0009444898989888091</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="H15">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="I15">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="J15">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,22 +1364,22 @@
         <v>65.97693</v>
       </c>
       <c r="O15">
-        <v>0.8449391514331273</v>
+        <v>0.7900017288527916</v>
       </c>
       <c r="P15">
-        <v>0.889077873518381</v>
+        <v>0.8470931604713817</v>
       </c>
       <c r="Q15">
-        <v>85.25453124590999</v>
+        <v>123.786894723795</v>
       </c>
       <c r="R15">
-        <v>511.5271874754599</v>
+        <v>742.72136834277</v>
       </c>
       <c r="S15">
-        <v>0.1258422985035155</v>
+        <v>0.1597309426613794</v>
       </c>
       <c r="T15">
-        <v>0.09288896390897591</v>
+        <v>0.1224345706581075</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="H16">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="I16">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="J16">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1420,28 +1420,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.015519</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N16">
-        <v>0.046557</v>
+        <v>0.143093</v>
       </c>
       <c r="O16">
-        <v>0.0005962361703291152</v>
+        <v>0.001713382501834088</v>
       </c>
       <c r="P16">
-        <v>0.0006273829133516105</v>
+        <v>0.001837204332049573</v>
       </c>
       <c r="Q16">
-        <v>0.060160350159</v>
+        <v>0.2684732091461667</v>
       </c>
       <c r="R16">
-        <v>0.360962100954</v>
+        <v>1.610839254877</v>
       </c>
       <c r="S16">
-        <v>8.880134149055092E-05</v>
+        <v>0.0003464298775078616</v>
       </c>
       <c r="T16">
-        <v>6.554763146315224E-05</v>
+        <v>0.00026554024291795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="H17">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="I17">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="J17">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.876561</v>
+        <v>5.6286445</v>
       </c>
       <c r="N17">
-        <v>7.753121999999999</v>
+        <v>11.257289</v>
       </c>
       <c r="O17">
-        <v>0.1489365219851282</v>
+        <v>0.2021906241817143</v>
       </c>
       <c r="P17">
-        <v>0.1044778715967623</v>
+        <v>0.1445349536171162</v>
       </c>
       <c r="Q17">
-        <v>15.027725186721</v>
+        <v>31.68163890738025</v>
       </c>
       <c r="R17">
-        <v>60.11090074688399</v>
+        <v>126.726555629521</v>
       </c>
       <c r="S17">
-        <v>0.02218208758102658</v>
+        <v>0.04088104850699123</v>
       </c>
       <c r="T17">
-        <v>0.01091562565338956</v>
+        <v>0.02089035281710193</v>
       </c>
     </row>
   </sheetData>
